--- a/ofc/estimates/Om shanti mandir/V ૐ शान्ति भवन.xlsx
+++ b/ofc/estimates/Om shanti mandir/V ૐ शान्ति भवन.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (2)" sheetId="17" r:id="rId1"/>
     <sheet name="WCR" sheetId="6" r:id="rId2"/>
     <sheet name="Valuated" sheetId="18" r:id="rId3"/>
+    <sheet name="M" sheetId="19" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
@@ -38,8 +40,10 @@
     <definedName name="description_6">[3]Abstract!$B$172</definedName>
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$1:$K$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet4 (2)'!$A$1:$K$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$98</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet4 (2)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
@@ -363,6 +367,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>DELL</author>
+    <author>Windows User</author>
   </authors>
   <commentList>
     <comment ref="I24" authorId="0" shapeId="0">
@@ -521,6 +526,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B58" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+size of 350*500mm used</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I59" authorId="0" shapeId="0">
       <text>
         <r>
@@ -609,6 +636,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="B78" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+size of 1/4" *22" used</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I79" authorId="0" shapeId="0">
       <text>
         <r>
@@ -653,12 +702,399 @@
         </r>
       </text>
     </comment>
+    <comment ref="B87" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+80*17cm pedestal for basin used and toilet brush holder </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>DELL</author>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="I24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Item 134 from civil rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG .No. 165 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG No. 169 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+White cement per 40kg bag rs 1230 PG.no.18 Ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG .No. 165 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 166 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 169 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+size of 350*500mm used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 169 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 169 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I69" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 169 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I74" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 151 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B78" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+size of 1/4" *22" used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I79" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 151 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I84" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+PG. No. 151 ktm jilla darr rate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B87" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+80*17cm pedestal for basin used and toilet brush holder </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="86">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -772,12 +1208,6 @@
   </si>
   <si>
     <t xml:space="preserve">Work Finished:           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">F.Y:2079/80                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:2079/06/13       </t>
   </si>
   <si>
     <t>VAT calculation</t>
@@ -922,16 +1352,25 @@
     <t>deduction for skirting area</t>
   </si>
   <si>
-    <t>size of 350*500mm used</t>
+    <t>PS</t>
   </si>
   <si>
-    <t>size of 1/4" *22" used</t>
+    <t>Date:2081/12/14</t>
   </si>
   <si>
-    <t xml:space="preserve">80*17cm pedestal for basin used and toilet brush holder </t>
+    <t>Detail Valuated Sheet</t>
   </si>
   <si>
-    <t>PS</t>
+    <t>Total Valuated</t>
+  </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/12/14       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.Y:2081/2082             </t>
   </si>
 </sst>
 </file>
@@ -942,7 +1381,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1536,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1192,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1409,22 +1859,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,19 +1883,22 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1481,14 +1922,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2068,113 +2520,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="A2" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+      <c r="A6" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="H6" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="H7" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2216,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="39"/>
@@ -2231,7 +2683,7 @@
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -2252,8 +2704,8 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="99" t="s">
-        <v>75</v>
+      <c r="K10" s="95" t="s">
+        <v>73</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="1"/>
@@ -2266,7 +2718,7 @@
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="36">
         <v>1</v>
@@ -2287,7 +2739,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="100"/>
+      <c r="K11" s="96"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2299,7 +2751,7 @@
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="36">
         <v>-6</v>
@@ -2318,7 +2770,7 @@
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="100"/>
+      <c r="K12" s="96"/>
       <c r="M12" s="25"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2347,7 +2799,7 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="100"/>
+      <c r="K13" s="96"/>
       <c r="M13" s="25"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2376,7 +2828,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="101"/>
+      <c r="K14" s="97"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2388,7 +2840,7 @@
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="38"/>
@@ -2399,7 +2851,7 @@
         <v>17.972823016200429</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="40">
         <v>2807.39</v>
@@ -2420,7 +2872,7 @@
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="38"/>
@@ -2467,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="38"/>
@@ -2489,7 +2941,7 @@
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="36">
         <v>1</v>
@@ -2516,7 +2968,7 @@
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="38"/>
@@ -2527,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I20" s="40">
         <v>20389</v>
@@ -2548,7 +3000,7 @@
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="38"/>
@@ -2595,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="38"/>
@@ -2617,7 +3069,7 @@
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="36">
         <v>1</v>
@@ -2644,7 +3096,7 @@
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="38"/>
@@ -2655,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I25" s="40">
         <v>1798</v>
@@ -2676,7 +3128,7 @@
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="38"/>
@@ -2723,7 +3175,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="38"/>
@@ -2745,7 +3197,7 @@
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="36">
         <v>1</v>
@@ -2774,7 +3226,7 @@
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="38"/>
@@ -2785,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I30" s="40">
         <f>1230/40</f>
@@ -2807,7 +3259,7 @@
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="38"/>
@@ -2854,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="39"/>
@@ -2872,7 +3324,7 @@
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="36">
         <v>1</v>
@@ -2899,7 +3351,7 @@
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="38"/>
@@ -2931,7 +3383,7 @@
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="38"/>
@@ -2978,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="39"/>
@@ -2996,7 +3448,7 @@
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="36">
         <v>1</v>
@@ -3023,7 +3475,7 @@
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="38"/>
@@ -3034,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I40" s="40">
         <v>1070</v>
@@ -3058,7 +3510,7 @@
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="38"/>
@@ -3105,7 +3557,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="38"/>
@@ -3127,7 +3579,7 @@
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="36">
         <v>1</v>
@@ -3154,7 +3606,7 @@
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="36"/>
       <c r="D45" s="38"/>
@@ -3165,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I45" s="40">
         <v>4425</v>
@@ -3186,7 +3638,7 @@
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C46" s="36"/>
       <c r="D46" s="38"/>
@@ -3233,7 +3685,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="38"/>
@@ -3255,7 +3707,7 @@
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="36">
         <v>1</v>
@@ -3282,7 +3734,7 @@
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="38"/>
@@ -3314,7 +3766,7 @@
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="36"/>
       <c r="D51" s="38"/>
@@ -3361,7 +3813,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="36"/>
       <c r="D53" s="38"/>
@@ -3383,7 +3835,7 @@
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="36">
         <v>1</v>
@@ -3410,7 +3862,7 @@
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="38"/>
@@ -3442,7 +3894,7 @@
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C56" s="36"/>
       <c r="D56" s="38"/>
@@ -3489,7 +3941,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="36"/>
       <c r="D58" s="38"/>
@@ -3511,7 +3963,7 @@
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" s="36">
         <v>1</v>
@@ -3538,7 +3990,7 @@
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C60" s="36"/>
       <c r="D60" s="38"/>
@@ -3570,7 +4022,7 @@
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="38"/>
@@ -3617,7 +4069,7 @@
         <v>11</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="36"/>
       <c r="D63" s="38"/>
@@ -3639,7 +4091,7 @@
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" s="36">
         <v>1</v>
@@ -3666,7 +4118,7 @@
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="38"/>
@@ -3698,7 +4150,7 @@
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C66" s="36"/>
       <c r="D66" s="38"/>
@@ -3745,7 +4197,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" s="36"/>
       <c r="D68" s="38"/>
@@ -3767,7 +4219,7 @@
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C69" s="36">
         <v>1</v>
@@ -3794,7 +4246,7 @@
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="38"/>
@@ -3826,7 +4278,7 @@
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71" s="36"/>
       <c r="D71" s="38"/>
@@ -3873,7 +4325,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73" s="36"/>
       <c r="D73" s="38"/>
@@ -3895,7 +4347,7 @@
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" s="36">
         <v>1</v>
@@ -3922,7 +4374,7 @@
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="38"/>
@@ -3954,7 +4406,7 @@
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C76" s="36"/>
       <c r="D76" s="38"/>
@@ -4001,7 +4453,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C78" s="19">
         <v>1</v>
@@ -4014,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I78" s="23">
         <v>10000</v>
@@ -4137,11 +4589,11 @@
       <c r="B84" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C84" s="95">
+      <c r="C84" s="91">
         <f>J82</f>
         <v>115578.08333909372</v>
       </c>
-      <c r="D84" s="95"/>
+      <c r="D84" s="91"/>
       <c r="E84" s="39">
         <v>100</v>
       </c>
@@ -4157,10 +4609,10 @@
       <c r="B85" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="98">
+      <c r="C85" s="94">
         <v>100000</v>
       </c>
-      <c r="D85" s="98"/>
+      <c r="D85" s="94"/>
       <c r="E85" s="39"/>
       <c r="F85" s="48"/>
       <c r="G85" s="47"/>
@@ -4174,11 +4626,11 @@
       <c r="B86" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C86" s="98">
+      <c r="C86" s="94">
         <f>C85-C88-C89</f>
         <v>95000</v>
       </c>
-      <c r="D86" s="98"/>
+      <c r="D86" s="94"/>
       <c r="E86" s="39">
         <f>C86/C84*100</f>
         <v>82.195514283863119</v>
@@ -4195,11 +4647,11 @@
       <c r="B87" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="95">
+      <c r="C87" s="91">
         <f>C84-C86</f>
         <v>20578.083339093719</v>
       </c>
-      <c r="D87" s="95"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="39">
         <f>100-E86</f>
         <v>17.804485716136881</v>
@@ -4216,11 +4668,11 @@
       <c r="B88" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="95">
+      <c r="C88" s="91">
         <f>C85*0.03</f>
         <v>3000</v>
       </c>
-      <c r="D88" s="95"/>
+      <c r="D88" s="91"/>
       <c r="E88" s="39">
         <v>3</v>
       </c>
@@ -4236,11 +4688,11 @@
       <c r="B89" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="95">
+      <c r="C89" s="91">
         <f>C85*0.02</f>
         <v>2000</v>
       </c>
-      <c r="D89" s="95"/>
+      <c r="D89" s="91"/>
       <c r="E89" s="39">
         <v>2</v>
       </c>
@@ -4322,6 +4774,13 @@
     <row r="146" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="A7:F7"/>
@@ -4331,13 +4790,6 @@
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="K10:K14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -4352,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4372,90 +4824,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
+      <c r="A2" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="102">
+      <c r="C6" s="111">
         <f>F56</f>
         <v>115578.08333909372</v>
       </c>
-      <c r="D6" s="103"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -4463,11 +4915,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="102">
+      <c r="J6" s="111">
         <f>I56</f>
-        <v>99181.175461840015</v>
-      </c>
-      <c r="K6" s="103"/>
+        <v>108043.41404374002</v>
+      </c>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -4476,77 +4928,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="I7" s="110" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="I7" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="str">
+      <c r="A8" s="98" t="str">
         <f>'Sheet4 (2)'!A6:F6</f>
         <v>Project:- ૐ शान्ति भवन निर्माण तथा मर्मत</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="I8" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="I8" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="112" t="str">
+      <c r="A9" s="109" t="str">
         <f>'Sheet4 (2)'!A7:F7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="I9" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="I9" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="107" t="s">
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="108" t="s">
+      <c r="K11" s="105" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -4565,8 +5017,8 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="54.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -4574,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="str">
         <f>'Sheet4 (2)'!H15</f>
@@ -4594,7 +5046,7 @@
       </c>
       <c r="G13" s="12">
         <f>Valuated!G24</f>
-        <v>18.718400000000003</v>
+        <v>19.912400000000005</v>
       </c>
       <c r="H13" s="12">
         <f>Valuated!I24</f>
@@ -4602,11 +5054,11 @@
       </c>
       <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>52549.848976000008</v>
+        <v>55901.872636000015</v>
       </c>
       <c r="J13" s="28">
         <f>I13-F13</f>
-        <v>2093.1253685490883</v>
+        <v>5445.1490285490945</v>
       </c>
       <c r="K13" s="14"/>
     </row>
@@ -4627,11 +5079,11 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12">
         <f>Valuated!J25</f>
-        <v>1948.8914858400003</v>
+        <v>2073.2064077400005</v>
       </c>
       <c r="J14" s="28">
         <f>I14-F14</f>
-        <v>77.626754197220862</v>
+        <v>201.94167609722103</v>
       </c>
       <c r="K14" s="14"/>
     </row>
@@ -4726,10 +5178,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="28">
-        <f>I18-F18</f>
-        <v>0</v>
-      </c>
+      <c r="J18" s="28"/>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -5650,19 +6099,19 @@
       </c>
       <c r="G52" s="12">
         <f>Valuated!G87</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="12">
         <f>Valuated!I87</f>
-        <v>10000</v>
+        <v>5385.9</v>
       </c>
       <c r="I52" s="12">
         <f>G52*H52</f>
-        <v>0</v>
+        <v>5385.9</v>
       </c>
       <c r="J52" s="28">
         <f>I52-F52</f>
-        <v>-10000</v>
+        <v>-4614.1000000000004</v>
       </c>
       <c r="K52" s="14"/>
     </row>
@@ -5751,16 +6200,23 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7">
         <f>SUM(I13:I54)</f>
-        <v>99181.175461840015</v>
+        <v>108043.41404374002</v>
       </c>
       <c r="J56" s="13">
         <f>I56-F56</f>
-        <v>-16396.907877253703</v>
+        <v>-7534.6692953536985</v>
       </c>
       <c r="K56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -5774,17 +6230,10 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:
 &amp;CChecked By:
@@ -5798,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94:D94"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5817,113 +6266,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="A2" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="A5" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+      <c r="A6" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
+      <c r="H6" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
+      <c r="H7" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -5965,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="39"/>
@@ -5980,7 +6429,7 @@
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -6001,9 +6450,7 @@
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="99" t="s">
-        <v>75</v>
-      </c>
+      <c r="K10" s="118"/>
       <c r="M10" s="25"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -6033,7 +6480,7 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="100"/>
+      <c r="K11" s="118"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6064,7 +6511,7 @@
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="100"/>
+      <c r="K12" s="118"/>
       <c r="M12" s="25"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6093,7 +6540,7 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="100"/>
+      <c r="K13" s="118"/>
       <c r="M13" s="25"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6122,7 +6569,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="100"/>
+      <c r="K14" s="118"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6151,7 +6598,7 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="100"/>
+      <c r="K15" s="118"/>
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -6163,7 +6610,7 @@
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="36">
         <v>1</v>
@@ -6183,7 +6630,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="100"/>
+      <c r="K16" s="118"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6212,7 +6659,7 @@
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="100"/>
+      <c r="K17" s="118"/>
       <c r="M17" s="25"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -6224,10 +6671,10 @@
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="38">
         <f>7.45+0.7+1.8</f>
@@ -6239,12 +6686,12 @@
       <c r="F18" s="38"/>
       <c r="G18" s="39">
         <f t="shared" si="0"/>
-        <v>1.1940000000000002</v>
+        <v>2.3880000000000003</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="100"/>
+      <c r="K18" s="118"/>
       <c r="M18" s="25"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -6256,7 +6703,7 @@
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="36">
         <v>1</v>
@@ -6275,7 +6722,7 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="100"/>
+      <c r="K19" s="118"/>
       <c r="M19" s="25"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -6304,7 +6751,7 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="100"/>
+      <c r="K20" s="118"/>
       <c r="M20" s="25"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -6333,7 +6780,7 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="100"/>
+      <c r="K21" s="118"/>
       <c r="M21" s="25"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -6345,7 +6792,7 @@
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="36">
         <v>-1</v>
@@ -6365,7 +6812,7 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="100"/>
+      <c r="K22" s="118"/>
       <c r="M22" s="25"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -6377,7 +6824,7 @@
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="36">
         <v>-6</v>
@@ -6396,7 +6843,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="100"/>
+      <c r="K23" s="118"/>
       <c r="M23" s="25"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -6408,7 +6855,7 @@
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="38"/>
@@ -6416,17 +6863,17 @@
       <c r="F24" s="38"/>
       <c r="G24" s="33">
         <f>SUM(G10:G23)</f>
-        <v>18.718400000000003</v>
+        <v>19.912400000000005</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="40">
         <v>2807.39</v>
       </c>
       <c r="J24" s="44">
         <f>G24*I24</f>
-        <v>52549.848976000008</v>
+        <v>55901.872636000015</v>
       </c>
       <c r="K24" s="21"/>
       <c r="M24" s="25"/>
@@ -6440,7 +6887,7 @@
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="38"/>
@@ -6451,7 +6898,7 @@
       <c r="I25" s="40"/>
       <c r="J25" s="44">
         <f>0.13*G24*(8008.95/10)</f>
-        <v>1948.8914858400003</v>
+        <v>2073.2064077400005</v>
       </c>
       <c r="K25" s="21"/>
       <c r="M25" s="25"/>
@@ -6487,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="36"/>
       <c r="D27" s="38"/>
@@ -6509,7 +6956,7 @@
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="36">
         <v>1</v>
@@ -6536,7 +6983,7 @@
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="38"/>
@@ -6547,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I29" s="40">
         <v>20389</v>
@@ -6568,7 +7015,7 @@
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="38"/>
@@ -6615,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="38"/>
@@ -6637,7 +7084,7 @@
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="36">
         <v>1</v>
@@ -6664,7 +7111,7 @@
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="38"/>
@@ -6675,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I34" s="40">
         <v>1798</v>
@@ -6696,7 +7143,7 @@
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="36"/>
       <c r="D35" s="38"/>
@@ -6743,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="38"/>
@@ -6765,7 +7212,7 @@
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="36">
         <v>1</v>
@@ -6794,7 +7241,7 @@
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="38"/>
@@ -6805,7 +7252,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I39" s="40">
         <f>1230/40</f>
@@ -6827,7 +7274,7 @@
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="36"/>
       <c r="D40" s="38"/>
@@ -6874,7 +7321,7 @@
         <v>5</v>
       </c>
       <c r="B42" s="69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="70"/>
       <c r="D42" s="71"/>
@@ -6892,7 +7339,7 @@
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="68"/>
       <c r="B43" s="74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" s="75">
         <v>0</v>
@@ -6919,7 +7366,7 @@
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68"/>
       <c r="B44" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="75"/>
       <c r="D44" s="76"/>
@@ -6951,7 +7398,7 @@
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="68"/>
       <c r="B45" s="74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="75"/>
       <c r="D45" s="76"/>
@@ -6998,7 +7445,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="39"/>
@@ -7016,7 +7463,7 @@
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="36">
         <v>1</v>
@@ -7043,7 +7490,7 @@
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="38"/>
@@ -7054,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I49" s="40">
         <v>1070</v>
@@ -7075,7 +7522,7 @@
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="38"/>
@@ -7122,7 +7569,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="38"/>
@@ -7144,7 +7591,7 @@
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="36">
         <v>1</v>
@@ -7171,7 +7618,7 @@
     <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="38"/>
@@ -7182,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I54" s="40">
         <v>4425</v>
@@ -7203,7 +7650,7 @@
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="38"/>
@@ -7250,7 +7697,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="75"/>
       <c r="D57" s="76"/>
@@ -7272,7 +7719,7 @@
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="68"/>
       <c r="B58" s="74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="75">
         <v>0</v>
@@ -7287,9 +7734,7 @@
       <c r="H58" s="77"/>
       <c r="I58" s="77"/>
       <c r="J58" s="73"/>
-      <c r="K58" s="114" t="s">
-        <v>81</v>
-      </c>
+      <c r="K58" s="86"/>
       <c r="M58" s="25"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -7301,7 +7746,7 @@
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="68"/>
       <c r="B59" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C59" s="75"/>
       <c r="D59" s="76"/>
@@ -7321,7 +7766,7 @@
         <f>G59*I59</f>
         <v>0</v>
       </c>
-      <c r="K59" s="115"/>
+      <c r="K59" s="86"/>
       <c r="M59" s="25"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -7333,7 +7778,7 @@
     <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68"/>
       <c r="B60" s="74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="75"/>
       <c r="D60" s="76"/>
@@ -7346,7 +7791,7 @@
         <f>0.13*J59</f>
         <v>0</v>
       </c>
-      <c r="K60" s="116"/>
+      <c r="K60" s="86"/>
       <c r="M60" s="25"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -7375,12 +7820,12 @@
       <c r="R61" s="25"/>
       <c r="S61" s="25"/>
     </row>
-    <row r="62" spans="1:19" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>9</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="38"/>
@@ -7402,7 +7847,7 @@
     <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="36">
         <v>1</v>
@@ -7429,7 +7874,7 @@
     <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="38"/>
@@ -7461,7 +7906,7 @@
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C65" s="36"/>
       <c r="D65" s="38"/>
@@ -7508,7 +7953,7 @@
         <v>10</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="36"/>
       <c r="D67" s="38"/>
@@ -7530,7 +7975,7 @@
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C68" s="36">
         <v>1</v>
@@ -7557,7 +8002,7 @@
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69" s="36"/>
       <c r="D69" s="38"/>
@@ -7589,7 +8034,7 @@
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="38"/>
@@ -7636,7 +8081,7 @@
         <v>11</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" s="36"/>
       <c r="D72" s="38"/>
@@ -7658,7 +8103,7 @@
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C73" s="36">
         <v>1</v>
@@ -7685,7 +8130,7 @@
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="38"/>
@@ -7717,7 +8162,7 @@
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75" s="36"/>
       <c r="D75" s="38"/>
@@ -7764,7 +8209,7 @@
         <v>12</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" s="75"/>
       <c r="D77" s="76"/>
@@ -7774,9 +8219,7 @@
       <c r="H77" s="77"/>
       <c r="I77" s="77"/>
       <c r="J77" s="73"/>
-      <c r="K77" s="114" t="s">
-        <v>82</v>
-      </c>
+      <c r="K77" s="86"/>
       <c r="M77" s="25"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -7788,7 +8231,7 @@
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="68"/>
       <c r="B78" s="74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="75">
         <v>0</v>
@@ -7803,7 +8246,7 @@
       <c r="H78" s="77"/>
       <c r="I78" s="77"/>
       <c r="J78" s="73"/>
-      <c r="K78" s="115"/>
+      <c r="K78" s="86"/>
       <c r="M78" s="25"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -7815,7 +8258,7 @@
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="68"/>
       <c r="B79" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C79" s="75"/>
       <c r="D79" s="76"/>
@@ -7835,7 +8278,7 @@
         <f>G79*I79</f>
         <v>0</v>
       </c>
-      <c r="K79" s="116"/>
+      <c r="K79" s="86"/>
       <c r="M79" s="25"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -7847,7 +8290,7 @@
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="68"/>
       <c r="B80" s="74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80" s="75"/>
       <c r="D80" s="76"/>
@@ -7894,7 +8337,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82" s="36"/>
       <c r="D82" s="38"/>
@@ -7916,7 +8359,7 @@
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C83" s="36">
         <v>1</v>
@@ -7943,7 +8386,7 @@
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C84" s="36"/>
       <c r="D84" s="38"/>
@@ -7975,7 +8418,7 @@
     <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C85" s="36"/>
       <c r="D85" s="38"/>
@@ -8017,36 +8460,35 @@
       <c r="R86" s="25"/>
       <c r="S86" s="25"/>
     </row>
-    <row r="87" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="68">
         <v>14</v>
       </c>
       <c r="B87" s="81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C87" s="82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="83"/>
       <c r="E87" s="80"/>
       <c r="F87" s="80"/>
       <c r="G87" s="78">
         <f t="shared" ref="G87" si="13">PRODUCT(C87:F87)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="84" t="s">
         <v>31</v>
       </c>
       <c r="I87" s="85">
-        <v>10000</v>
+        <f>3658.9+1328+399</f>
+        <v>5385.9</v>
       </c>
       <c r="J87" s="78">
         <f>G87*I87</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="86" t="s">
-        <v>83</v>
-      </c>
+        <v>5385.9</v>
+      </c>
+      <c r="K87" s="86"/>
       <c r="M87" s="25"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -8138,7 +8580,7 @@
       <c r="I91" s="41"/>
       <c r="J91" s="41">
         <f>SUM(J9:J89)</f>
-        <v>99181.175461840015</v>
+        <v>108043.41404374002</v>
       </c>
       <c r="K91" s="36"/>
     </row>
@@ -8158,13 +8600,13 @@
     <row r="93" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49"/>
       <c r="B93" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C93" s="95">
+        <v>82</v>
+      </c>
+      <c r="C93" s="91">
         <f>J91</f>
-        <v>99181.175461840015</v>
-      </c>
-      <c r="D93" s="95"/>
+        <v>108043.41404374002</v>
+      </c>
+      <c r="D93" s="91"/>
       <c r="E93" s="39">
         <v>100</v>
       </c>
@@ -8180,10 +8622,10 @@
       <c r="B94" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="98">
+      <c r="C94" s="94">
         <v>100000</v>
       </c>
-      <c r="D94" s="98"/>
+      <c r="D94" s="94"/>
       <c r="E94" s="39"/>
       <c r="F94" s="48"/>
       <c r="G94" s="47"/>
@@ -8197,11 +8639,11 @@
       <c r="B95" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="98">
+      <c r="C95" s="94">
         <f>82.2%*C93</f>
-        <v>81526.926229632503</v>
-      </c>
-      <c r="D95" s="98"/>
+        <v>88811.686343954309</v>
+      </c>
+      <c r="D95" s="94"/>
       <c r="E95" s="39">
         <f>C95/C93*100</f>
         <v>82.2</v>
@@ -8218,11 +8660,11 @@
       <c r="B96" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="95">
+      <c r="C96" s="91">
         <f>C93-C95</f>
-        <v>17654.249232207512</v>
-      </c>
-      <c r="D96" s="95"/>
+        <v>19231.727699785712</v>
+      </c>
+      <c r="D96" s="91"/>
       <c r="E96" s="39">
         <f>100-E95</f>
         <v>17.799999999999997</v>
@@ -8239,11 +8681,11 @@
       <c r="B97" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="95">
+      <c r="C97" s="91">
         <f>C94*0.03</f>
         <v>3000</v>
       </c>
-      <c r="D97" s="95"/>
+      <c r="D97" s="91"/>
       <c r="E97" s="39">
         <v>3</v>
       </c>
@@ -8259,11 +8701,11 @@
       <c r="B98" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="95">
+      <c r="C98" s="91">
         <f>C94*0.02</f>
         <v>2000</v>
       </c>
-      <c r="D98" s="95"/>
+      <c r="D98" s="91"/>
       <c r="E98" s="39">
         <v>2</v>
       </c>
@@ -8344,7 +8786,15 @@
     <row r="154" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="155" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -8352,20 +8802,2574 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="K10:K23"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="54.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>1</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="38">
+        <f>2.4+1.07</f>
+        <v>3.4699999999999998</v>
+      </c>
+      <c r="E10" s="38">
+        <f>(1.42+1.46)/2</f>
+        <v>1.44</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>4.9967999999999995</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="118"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="36">
+        <f>2*-1</f>
+        <v>-2</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.13</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39">
+        <f t="shared" ref="G11:G23" si="0">PRODUCT(C11:F11)</f>
+        <v>-0.182</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="118"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="38">
+        <f>1.9+1.66</f>
+        <v>3.5599999999999996</v>
+      </c>
+      <c r="E12" s="38">
+        <f>(1.42+1.65)/2</f>
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39">
+        <f t="shared" si="0"/>
+        <v>5.464599999999999</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="118"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39">
+        <f t="shared" si="0"/>
+        <v>-0.315</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="118"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0.48</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39">
+        <f t="shared" si="0"/>
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="118"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0.46</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0.08</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39">
+        <f t="shared" si="0"/>
+        <v>-3.6799999999999999E-2</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="118"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
+        <f>7.45+0.7</f>
+        <v>8.15</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39">
+        <f t="shared" si="0"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="118"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="36">
+        <v>1</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="118"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="36">
+        <v>2</v>
+      </c>
+      <c r="D18" s="38">
+        <f>7.45+0.7+1.8</f>
+        <v>9.9500000000000011</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39">
+        <f t="shared" si="0"/>
+        <v>2.3880000000000003</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="118"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0.79</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39">
+        <f t="shared" si="0"/>
+        <v>0.71100000000000008</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="118"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0.72</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39">
+        <f t="shared" si="0"/>
+        <v>0.216</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="118"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39">
+        <f t="shared" si="0"/>
+        <v>0.30600000000000005</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="118"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="36">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="38">
+        <f>0.92+0.9+0.72</f>
+        <v>2.54</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0.12</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39">
+        <f t="shared" si="0"/>
+        <v>-0.30480000000000002</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="118"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="36">
+        <v>-6</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="38">
+        <v>0.13</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39">
+        <f t="shared" si="0"/>
+        <v>-0.23399999999999999</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="118"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="33">
+        <f>SUM(G10:G23)</f>
+        <v>19.912400000000005</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="40">
+        <v>2807.39</v>
+      </c>
+      <c r="J24" s="44">
+        <f>G24*I24</f>
+        <v>55901.872636000015</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="44">
+        <f>0.13*G24*(8008.95/10)</f>
+        <v>2073.2064077400005</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2</v>
+      </c>
+      <c r="B27" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39">
+        <f t="shared" ref="G28" si="1">PRODUCT(C28:F28)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="33">
+        <f>SUM(G28)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="40">
+        <v>20389</v>
+      </c>
+      <c r="J29" s="44">
+        <f>G29*I29</f>
+        <v>20389</v>
+      </c>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="44">
+        <f>0.13*J29</f>
+        <v>2650.57</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="21"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>3</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="36">
+        <v>1</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39">
+        <f t="shared" ref="G33" si="2">PRODUCT(C33:F33)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="33">
+        <f>SUM(G33)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="40">
+        <v>1798</v>
+      </c>
+      <c r="J34" s="44">
+        <f>G34*I34</f>
+        <v>1798</v>
+      </c>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="44">
+        <f>0.13*J34</f>
+        <v>233.74</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>4</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39">
+        <f t="shared" ref="G38" si="3">PRODUCT(C38:F38)</f>
+        <v>2</v>
+      </c>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="33">
+        <f>SUM(G38)</f>
+        <v>2</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="40">
+        <f>1230/40</f>
+        <v>30.75</v>
+      </c>
+      <c r="J39" s="44">
+        <f>G39*I39</f>
+        <v>61.5</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="44">
+        <f>0.13*J39</f>
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+    </row>
+    <row r="42" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="68">
+        <v>5</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
+      <c r="B43" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="75">
+        <v>0</v>
+      </c>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="71">
+        <f t="shared" ref="G43" si="4">PRODUCT(C43:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="21"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="68"/>
+      <c r="B44" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="78">
+        <f>SUM(G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="77">
+        <v>5613</v>
+      </c>
+      <c r="J44" s="73">
+        <f>G44*I44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="68"/>
+      <c r="B45" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="73">
+        <f>0.13*J44</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="21"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+    </row>
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>6</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="36">
+        <v>1</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39">
+        <f t="shared" ref="G48" si="5">PRODUCT(C48:F48)</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="33">
+        <f>SUM(G48)</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="40">
+        <v>1070</v>
+      </c>
+      <c r="J49" s="44">
+        <f>G49*I49</f>
+        <v>1070</v>
+      </c>
+      <c r="K49" s="21"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="44">
+        <f>0.13*J49</f>
+        <v>139.1</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="21"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+    </row>
+    <row r="52" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>7</v>
+      </c>
+      <c r="B52" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="21"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="36">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="39">
+        <f t="shared" ref="G53" si="6">PRODUCT(C53:F53)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="21"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="33">
+        <f>SUM(G53)</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="40">
+        <v>4425</v>
+      </c>
+      <c r="J54" s="44">
+        <f>G54*I54</f>
+        <v>4425</v>
+      </c>
+      <c r="K54" s="21"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="44">
+        <f>0.13*J54</f>
+        <v>575.25</v>
+      </c>
+      <c r="K55" s="21"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="21"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+    </row>
+    <row r="57" spans="1:19" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="68">
+        <v>8</v>
+      </c>
+      <c r="B57" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="80"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="68"/>
+      <c r="B58" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="75">
+        <v>0</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="71">
+        <f t="shared" ref="G58" si="7">PRODUCT(C58:F58)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="86"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+    </row>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="68"/>
+      <c r="B59" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="78">
+        <f>SUM(G58)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="77">
+        <v>1459</v>
+      </c>
+      <c r="J59" s="73">
+        <f>G59*I59</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="86"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="68"/>
+      <c r="B60" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="75"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="73">
+        <f>0.13*J59</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="86"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="21"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" spans="1:19" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>9</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="21"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="36">
+        <v>1</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="39">
+        <f t="shared" ref="G63" si="8">PRODUCT(C63:F63)</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="21"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="33">
+        <f>SUM(G63)</f>
+        <v>1</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="40">
+        <v>4182</v>
+      </c>
+      <c r="J64" s="44">
+        <f>G64*I64</f>
+        <v>4182</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="44">
+        <f>0.13*J64</f>
+        <v>543.66</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="21"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+    </row>
+    <row r="67" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>10</v>
+      </c>
+      <c r="B67" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="21"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="36">
+        <v>1</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="39">
+        <f t="shared" ref="G68" si="9">PRODUCT(C68:F68)</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="21"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="36"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="33">
+        <f>SUM(G68)</f>
+        <v>1</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="40">
+        <v>5565</v>
+      </c>
+      <c r="J69" s="44">
+        <f>G69*I69</f>
+        <v>5565</v>
+      </c>
+      <c r="K69" s="21"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="44">
+        <f>0.13*J69</f>
+        <v>723.45</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="21"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+    </row>
+    <row r="72" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>11</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="21"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="36">
+        <v>1</v>
+      </c>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="39">
+        <f t="shared" ref="G73" si="10">PRODUCT(C73:F73)</f>
+        <v>1</v>
+      </c>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="21"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="33">
+        <f>SUM(G73)</f>
+        <v>1</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="40">
+        <v>929</v>
+      </c>
+      <c r="J74" s="44">
+        <f>G74*I74</f>
+        <v>929</v>
+      </c>
+      <c r="K74" s="21"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+    </row>
+    <row r="75" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="44">
+        <f>0.13*J74</f>
+        <v>120.77000000000001</v>
+      </c>
+      <c r="K75" s="21"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="21"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+    </row>
+    <row r="77" spans="1:19" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="68">
+        <v>12</v>
+      </c>
+      <c r="B77" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="75"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="86"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="68"/>
+      <c r="B78" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="75">
+        <v>0</v>
+      </c>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="71">
+        <f t="shared" ref="G78" si="11">PRODUCT(C78:F78)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="86"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="68"/>
+      <c r="B79" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="75"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="78">
+        <f>SUM(G78)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="77">
+        <v>510</v>
+      </c>
+      <c r="J79" s="73">
+        <f>G79*I79</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="86"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+    </row>
+    <row r="80" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="68"/>
+      <c r="B80" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="75"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="73">
+        <f>0.13*J79</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="80"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="21"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+    </row>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>13</v>
+      </c>
+      <c r="B82" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="21"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="36">
+        <v>1</v>
+      </c>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="39">
+        <f t="shared" ref="G83" si="12">PRODUCT(C83:F83)</f>
+        <v>1</v>
+      </c>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="21"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="33">
+        <f>SUM(G83)</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" s="40">
+        <v>680</v>
+      </c>
+      <c r="J84" s="44">
+        <f>G84*I84</f>
+        <v>680</v>
+      </c>
+      <c r="K84" s="21"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="44">
+        <f>0.13*J84</f>
+        <v>88.4</v>
+      </c>
+      <c r="K85" s="21"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+    </row>
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="21"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+    </row>
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="68">
+        <v>14</v>
+      </c>
+      <c r="B87" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="82">
+        <v>1</v>
+      </c>
+      <c r="D87" s="83"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="78">
+        <f t="shared" ref="G87" si="13">PRODUCT(C87:F87)</f>
+        <v>1</v>
+      </c>
+      <c r="H87" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" s="85">
+        <f>3658.9+1328+399</f>
+        <v>5385.9</v>
+      </c>
+      <c r="J87" s="78">
+        <f>G87*I87</f>
+        <v>5385.9</v>
+      </c>
+      <c r="K87" s="86"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18">
+        <v>15</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="19">
+        <v>1</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="33">
+        <f t="shared" ref="G89" si="14">PRODUCT(C89:F89)</f>
+        <v>1</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="23">
+        <v>500</v>
+      </c>
+      <c r="J89" s="33">
+        <f>G89*I89</f>
+        <v>500</v>
+      </c>
+      <c r="K89" s="21"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+    </row>
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="21"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="40"/>
+      <c r="B91" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="46"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41">
+        <f>SUM(J9:J89)</f>
+        <v>108043.41404374002</v>
+      </c>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="57"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="56"/>
+    </row>
+    <row r="93" spans="1:19" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="49"/>
+      <c r="B93" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="91">
+        <f>J91</f>
+        <v>108043.41404374002</v>
+      </c>
+      <c r="D93" s="91"/>
+      <c r="E93" s="39">
+        <v>100</v>
+      </c>
+      <c r="F93" s="50"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="53"/>
+      <c r="K93" s="54"/>
+    </row>
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="55"/>
+      <c r="B94" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="94">
+        <v>100000</v>
+      </c>
+      <c r="D94" s="94"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="48"/>
+    </row>
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="55"/>
+      <c r="B95" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="94">
+        <f>82.2%*C93</f>
+        <v>88811.686343954309</v>
+      </c>
+      <c r="D95" s="94"/>
+      <c r="E95" s="39">
+        <f>C95/C93*100</f>
+        <v>82.2</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="48"/>
+    </row>
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="91">
+        <f>C93-C95</f>
+        <v>19231.727699785712</v>
+      </c>
+      <c r="D96" s="91"/>
+      <c r="E96" s="39">
+        <f>100-E95</f>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="48"/>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="B97" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="91">
+        <f>C94*0.03</f>
+        <v>3000</v>
+      </c>
+      <c r="D97" s="91"/>
+      <c r="E97" s="39">
+        <v>3</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="48"/>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="91">
+        <f>C94*0.02</f>
+        <v>2000</v>
+      </c>
+      <c r="D98" s="91"/>
+      <c r="E98" s="39">
+        <v>2</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="48"/>
+    </row>
+    <row r="99" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+    </row>
+    <row r="100" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="13">
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
